--- a/demo_h.xlsx
+++ b/demo_h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_test\demo_h\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDF6B0-F87F-4CCA-95D8-CCB13B4969F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1808AC-D4A2-4CDD-9405-3CF967DCBC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5928" yWindow="8160" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Order_ID</t>
   </si>
@@ -52,19 +52,25 @@
     <t>Detial</t>
   </si>
   <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>周勋</t>
-  </si>
-  <si>
-    <t>EFD</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>eee</t>
+    <t>苏鹏程</t>
+  </si>
+  <si>
+    <t>Y24M11D27-0004</t>
+  </si>
+  <si>
+    <t>WW-20241126002</t>
+  </si>
+  <si>
+    <t>EFB</t>
+  </si>
+  <si>
+    <t>曾祥青</t>
+  </si>
+  <si>
+    <t>窦林</t>
+  </si>
+  <si>
+    <t>减震器匹配，大约要更换减震器50次</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +447,13 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -471,36 +487,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="F2" s="2">
-        <v>45646</v>
+        <v>45653</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>111</v>
+        <v>360</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
